--- a/BlackMamba数据表.xlsx
+++ b/BlackMamba数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19950" windowHeight="9930"/>
+    <workbookView windowWidth="18480" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
   <si>
     <t>凡客商城 www.fanke.com</t>
   </si>
@@ -25,6 +25,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">复制之后,到 </t>
     </r>
     <r>
@@ -32,6 +39,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">http://tool.chinaz.com/Tools/jsformat.aspx </t>
@@ -41,10 +49,14 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>格式化(解决代码乱的问题)</t>
     </r>
+  </si>
+  <si>
+    <t>http://tool.chinaz.com/Tools/jsformat.aspx</t>
   </si>
   <si>
     <t>数据库名:fanke</t>
@@ -625,12 +637,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +698,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,7 +792,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,22 +874,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -818,14 +897,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,68 +912,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,7 +924,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -936,7 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,6 +972,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -966,43 +996,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,19 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,6 +1044,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1062,7 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,43 +1098,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,11 +1178,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,21 +1250,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1209,39 +1260,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1250,10 +1268,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,133 +1280,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1425,16 +1443,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,10 +1472,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1469,7 +1484,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1479,6 +1494,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1828,7 +1846,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1847,27 +1865,29 @@
     </row>
     <row r="2" customFormat="1"/>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A6" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="5"/>
@@ -1881,30 +1901,30 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="14.25" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A9" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -1912,17 +1932,17 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -1930,17 +1950,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -1948,13 +1968,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -1964,13 +1984,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -1980,13 +2000,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -1996,13 +2016,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2012,13 +2032,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2028,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -2044,13 +2064,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2060,13 +2080,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -2076,13 +2096,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -2092,19 +2112,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="18">
         <v>0</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2112,13 +2132,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="18">
         <v>0</v>
@@ -2133,30 +2153,30 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="14.25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A26" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2164,17 +2184,17 @@
         <v>1</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2182,17 +2202,17 @@
         <v>2</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2200,13 +2220,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -2216,13 +2236,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -2232,13 +2252,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -2248,13 +2268,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -2264,19 +2284,19 @@
         <v>10</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" s="17">
         <v>1</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2284,13 +2304,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -2300,13 +2320,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -2316,17 +2336,17 @@
         <v>13</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="14.25"/>
@@ -2341,10 +2361,10 @@
     </row>
     <row r="39" ht="14.25" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2354,69 +2374,69 @@
     </row>
     <row r="40" ht="14.25" spans="1:7">
       <c r="A40" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" ht="14.25" spans="1:7">
       <c r="A41" s="18"/>
       <c r="B41" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
       <c r="A42" s="18"/>
       <c r="B42" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" ht="14.25" spans="1:7">
       <c r="A43" s="18"/>
       <c r="B43" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
@@ -2425,13 +2445,13 @@
     <row r="44" ht="14.25" spans="1:7">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
@@ -2440,13 +2460,13 @@
     <row r="45" ht="14.25" spans="1:7">
       <c r="A45" s="18"/>
       <c r="B45" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
@@ -2455,13 +2475,13 @@
     <row r="46" ht="14.25" spans="1:7">
       <c r="A46" s="18"/>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -2470,13 +2490,13 @@
     <row r="47" ht="14.25" spans="1:7">
       <c r="A47" s="18"/>
       <c r="B47" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -2485,13 +2505,13 @@
     <row r="48" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A48" s="18"/>
       <c r="B48" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
@@ -2500,74 +2520,74 @@
     <row r="50" s="2" customFormat="1" ht="14.25"/>
     <row r="51" s="4" customFormat="1" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A52" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A53" s="18"/>
       <c r="B53" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A54" s="18"/>
       <c r="B54" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A55" s="18"/>
       <c r="B55" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -2575,13 +2595,13 @@
     <row r="56" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A56" s="18"/>
       <c r="B56" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
@@ -2589,13 +2609,13 @@
     <row r="57" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A57" s="18"/>
       <c r="B57" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -2603,13 +2623,13 @@
     <row r="58" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A58" s="18"/>
       <c r="B58" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
@@ -2617,13 +2637,13 @@
     <row r="59" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A59" s="18"/>
       <c r="B59" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
@@ -2631,13 +2651,13 @@
     <row r="60" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A60" s="18"/>
       <c r="B60" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -2645,10 +2665,10 @@
     <row r="62" ht="18" customHeight="1"/>
     <row r="63" ht="14.25" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2658,52 +2678,52 @@
     </row>
     <row r="64" ht="14.25" spans="1:7">
       <c r="A64" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2"/>
     </row>
     <row r="65" ht="14.25" spans="1:7">
       <c r="A65" s="18"/>
       <c r="B65" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G65" s="2"/>
     </row>
     <row r="66" ht="14.25" spans="1:7">
       <c r="A66" s="18"/>
       <c r="B66" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -2712,13 +2732,13 @@
     <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="18"/>
       <c r="B67" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -2727,13 +2747,13 @@
     <row r="68" ht="14.25" spans="1:7">
       <c r="A68" s="18"/>
       <c r="B68" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
@@ -2742,13 +2762,13 @@
     <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="18"/>
       <c r="B69" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
@@ -2757,13 +2777,13 @@
     <row r="70" ht="14.25" spans="1:7">
       <c r="A70" s="18"/>
       <c r="B70" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
@@ -2772,13 +2792,13 @@
     <row r="71" ht="14.25" spans="1:7">
       <c r="A71" s="18"/>
       <c r="B71" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
@@ -2787,13 +2807,13 @@
     <row r="72" ht="14.25" spans="1:7">
       <c r="A72" s="18"/>
       <c r="B72" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
@@ -2802,46 +2822,46 @@
     <row r="73" ht="14.25" spans="1:7">
       <c r="A73" s="18"/>
       <c r="B73" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G73" s="2"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="14.25" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A77" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2849,17 +2869,17 @@
         <v>1</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2867,13 +2887,13 @@
         <v>2</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -2883,13 +2903,13 @@
         <v>3</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" s="17">
         <v>0</v>
@@ -2901,13 +2921,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -2915,30 +2935,30 @@
     <row r="83" customFormat="1"/>
     <row r="84" s="2" customFormat="1" ht="14.25" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A85" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2946,17 +2966,17 @@
         <v>1</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2964,17 +2984,17 @@
         <v>2</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -2982,13 +3002,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
@@ -2998,13 +3018,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
@@ -3014,13 +3034,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
@@ -3030,13 +3050,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
@@ -3046,13 +3066,13 @@
         <v>7</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
@@ -3062,19 +3082,19 @@
         <v>8</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E93" s="18">
         <v>1</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -3082,13 +3102,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E94" s="18">
         <v>0</v>
@@ -3100,13 +3120,13 @@
         <v>10</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E95" s="18">
         <v>0</v>
@@ -3118,13 +3138,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E96" s="18">
         <v>0</v>
@@ -3136,13 +3156,13 @@
         <v>12</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
@@ -3150,30 +3170,30 @@
     <row r="99" customFormat="1"/>
     <row r="100" s="2" customFormat="1" ht="14.25" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A101" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -3181,17 +3201,17 @@
         <v>1</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -3199,13 +3219,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
@@ -3215,13 +3235,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
@@ -3231,17 +3251,17 @@
         <v>4</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -3249,17 +3269,17 @@
         <v>5</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" s="2" customFormat="1" ht="14.25" spans="1:6">
@@ -3267,13 +3287,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E107" s="18">
         <v>0</v>
@@ -3283,7 +3303,7 @@
     <row r="109" customFormat="1"/>
     <row r="110" customFormat="1" ht="14.25" spans="1:5">
       <c r="A110" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="2"/>
@@ -3292,16 +3312,16 @@
     </row>
     <row r="111" s="5" customFormat="1" ht="14.25" spans="1:4">
       <c r="A111" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3309,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C112" s="18">
         <v>0</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3323,13 +3343,13 @@
         <v>2</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C113" s="18">
         <v>0</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3337,13 +3357,13 @@
         <v>3</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C114" s="18">
         <v>0</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3351,13 +3371,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C115" s="18">
         <v>0</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3365,13 +3385,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C116" s="18">
         <v>0</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3379,13 +3399,13 @@
         <v>6</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C117" s="18">
         <v>0</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3393,13 +3413,13 @@
         <v>7</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C118" s="18">
         <v>0</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3407,13 +3427,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C119" s="18">
         <v>0</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3421,13 +3441,13 @@
         <v>9</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C120" s="18">
         <v>0</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3435,13 +3455,13 @@
         <v>10</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C121" s="18">
         <v>0</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3449,13 +3469,13 @@
         <v>11</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C122" s="18">
         <v>1</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3463,13 +3483,13 @@
         <v>12</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C123" s="18">
         <v>1</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3477,13 +3497,13 @@
         <v>13</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C124" s="18">
         <v>1</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3491,13 +3511,13 @@
         <v>14</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C125" s="18">
         <v>1</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3505,13 +3525,13 @@
         <v>15</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C126" s="18">
         <v>2</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" ht="14.25" spans="1:5">
@@ -3519,13 +3539,13 @@
         <v>16</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C127" s="18">
         <v>2</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E127" s="5"/>
     </row>
@@ -3534,13 +3554,13 @@
         <v>17</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C128" s="18">
         <v>2</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E128" s="5"/>
     </row>
@@ -3549,13 +3569,13 @@
         <v>18</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C129" s="18">
         <v>2</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E129" s="5"/>
     </row>
@@ -3564,13 +3584,13 @@
         <v>19</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C130" s="18">
         <v>3</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E130" s="5"/>
     </row>
@@ -3579,13 +3599,13 @@
         <v>20</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C131" s="18">
         <v>3</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E131" s="5"/>
     </row>
@@ -3594,13 +3614,13 @@
         <v>21</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C132" s="18">
         <v>4</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E132" s="5"/>
     </row>
@@ -3609,13 +3629,13 @@
         <v>22</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C133" s="18">
         <v>4</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" s="5" customFormat="1" ht="14.25" spans="1:4">
@@ -3623,18 +3643,18 @@
         <v>23</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C134" s="18">
         <v>4</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" s="6" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A136" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -3645,67 +3665,67 @@
     <row r="139" s="7" customFormat="1" ht="15" customHeight="1"/>
     <row r="140" s="8" customFormat="1" ht="23" customHeight="1" spans="1:2">
       <c r="A140" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" s="9" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A141" s="24"/>
       <c r="B141" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" s="9" customFormat="1" ht="14.25" spans="2:3">
       <c r="B142" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C142" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="143" s="9" customFormat="1" ht="14.25" spans="2:3">
       <c r="B143" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" s="9" customFormat="1" ht="14.25" spans="2:3">
       <c r="B144" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" s="9" customFormat="1" ht="14.25" spans="2:3">
       <c r="B145" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C145" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="C145" s="26" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="146" s="9" customFormat="1" ht="14.25" spans="2:3">
       <c r="B146" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" s="9" customFormat="1" ht="15" customHeight="1" spans="2:3">
       <c r="B147" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" s="10" customFormat="1" ht="13" customHeight="1" spans="1:1">
@@ -3713,48 +3733,48 @@
     </row>
     <row r="149" s="10" customFormat="1" ht="20.25" spans="1:3">
       <c r="A149" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C149" s="27"/>
     </row>
     <row r="150" s="10" customFormat="1" spans="2:3">
       <c r="B150" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" s="10" customFormat="1" spans="2:3">
       <c r="B151" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" s="10" customFormat="1" spans="2:3">
       <c r="B152" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" s="10" customFormat="1" spans="2:3">
       <c r="B153" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" s="10" customFormat="1" spans="2:3">
       <c r="B154" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C154" s="27"/>
     </row>
@@ -3764,59 +3784,59 @@
     </row>
     <row r="156" s="10" customFormat="1" ht="20.25" spans="1:3">
       <c r="A156" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C156" s="27"/>
     </row>
     <row r="157" s="10" customFormat="1" spans="2:3">
       <c r="B157" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" s="10" customFormat="1" spans="2:3">
       <c r="B158" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" s="10" customFormat="1" spans="2:3">
       <c r="B159" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" s="10" customFormat="1" spans="2:3">
       <c r="B160" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" s="10" customFormat="1" spans="2:3">
       <c r="B161" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" s="10" customFormat="1" spans="2:3">
       <c r="B162" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" s="10" customFormat="1" spans="2:3">
@@ -3825,19 +3845,19 @@
     </row>
     <row r="164" s="10" customFormat="1" ht="20.25" spans="1:3">
       <c r="A164" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C164" s="27"/>
     </row>
     <row r="165" s="10" customFormat="1" spans="2:3">
       <c r="B165" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="2:2">
@@ -3845,7 +3865,7 @@
     </row>
     <row r="168" ht="20.25" spans="1:4">
       <c r="A168" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B168" s="30"/>
       <c r="C168" s="30"/>
@@ -3854,7 +3874,7 @@
     <row r="169" spans="1:5">
       <c r="A169" s="30"/>
       <c r="B169" s="30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C169" s="30"/>
       <c r="D169" s="30"/>
@@ -3863,7 +3883,7 @@
     <row r="170" spans="1:5">
       <c r="A170" s="30"/>
       <c r="B170" s="30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C170" s="30"/>
       <c r="D170" s="30"/>
@@ -3872,7 +3892,7 @@
     <row r="171" spans="1:5">
       <c r="A171" s="30"/>
       <c r="B171" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C171" s="30"/>
       <c r="D171" s="30"/>
@@ -3881,7 +3901,7 @@
     <row r="172" spans="1:5">
       <c r="A172" s="30"/>
       <c r="B172" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C172" s="30"/>
       <c r="D172" s="30"/>
@@ -3890,7 +3910,7 @@
     <row r="173" spans="1:5">
       <c r="A173" s="30"/>
       <c r="B173" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C173" s="30"/>
       <c r="D173" s="30"/>
@@ -3905,7 +3925,7 @@
     <row r="175" spans="1:5">
       <c r="A175" s="30"/>
       <c r="B175" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C175" s="31"/>
       <c r="D175" s="31"/>
@@ -3917,6 +3937,9 @@
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="B175:E175"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="http://tool.chinaz.com/Tools/jsformat.aspx"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
